--- a/reference/map.xlsx
+++ b/reference/map.xlsx
@@ -754,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AK24"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -763,760 +763,761 @@
     <col min="1" max="16384" width="3.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="44">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44">
         <v>1</v>
       </c>
-      <c r="H3" s="44">
+      <c r="C1" s="44">
         <v>2</v>
       </c>
-      <c r="J3" s="44">
+      <c r="E1" s="44">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="43">
+    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
         <v>4</v>
       </c>
-      <c r="H4" s="43">
+      <c r="C2" s="43">
         <v>5</v>
       </c>
-      <c r="J4" s="43">
+      <c r="E2" s="43">
         <v>6</v>
       </c>
-      <c r="M4" s="24">
+      <c r="H2" s="24">
         <v>7</v>
       </c>
-      <c r="N4" s="31">
+      <c r="I2" s="31">
         <v>8</v>
       </c>
-      <c r="O4" s="21">
+      <c r="J2" s="21">
         <v>9</v>
       </c>
-      <c r="P4" s="31">
+      <c r="K2" s="31">
         <v>10</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="L2" s="21">
         <v>11</v>
       </c>
-      <c r="R4" s="31">
+      <c r="M2" s="31">
         <v>12</v>
       </c>
-      <c r="S4" s="31">
+      <c r="N2" s="31">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="O2" s="21">
         <v>14</v>
       </c>
-      <c r="U4" s="31">
+      <c r="P2" s="31">
         <v>15</v>
       </c>
-      <c r="V4" s="31">
+      <c r="Q2" s="31">
         <v>16</v>
       </c>
-      <c r="W4" s="21">
+      <c r="R2" s="21">
         <v>17</v>
       </c>
-      <c r="X4" s="31">
+      <c r="S2" s="31">
         <v>18</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="T2" s="21">
         <v>19</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="U2" s="31">
         <v>20</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="V2" s="21">
         <v>21</v>
       </c>
-      <c r="AB4" s="31">
+      <c r="W2" s="31">
         <v>22</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="X2" s="31">
         <v>23</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="Y2" s="21">
         <v>24</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="Z2" s="31">
         <v>25</v>
       </c>
-      <c r="AF4" s="31">
+      <c r="AA2" s="31">
         <v>26</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AB2" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="43">
+    <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
         <v>28</v>
       </c>
-      <c r="H5" s="43">
+      <c r="C3" s="43">
         <v>29</v>
       </c>
-      <c r="J5" s="43">
+      <c r="E3" s="43">
         <v>30</v>
       </c>
-      <c r="M5" s="28">
+      <c r="H3" s="28">
         <v>31</v>
       </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="37">
+        <v>32</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="37">
+        <v>33</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="28">
+        <v>34</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="37">
+        <v>35</v>
+      </c>
+      <c r="S3" s="23"/>
+      <c r="T3" s="37">
+        <v>36</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="28">
+        <v>37</v>
+      </c>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="37">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>40</v>
+      </c>
+      <c r="B4" s="41">
+        <v>41</v>
+      </c>
+      <c r="C4" s="20">
+        <v>42</v>
+      </c>
+      <c r="D4" s="41">
+        <v>43</v>
+      </c>
+      <c r="E4" s="20">
+        <v>44</v>
+      </c>
+      <c r="F4" s="41">
+        <v>45</v>
+      </c>
+      <c r="G4" s="41">
+        <v>46</v>
+      </c>
+      <c r="H4" s="27">
+        <v>47</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="34">
+        <v>48</v>
+      </c>
+      <c r="O4" s="27">
+        <v>49</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="28">
+        <v>50</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="39">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="39">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>54</v>
+      </c>
+      <c r="C5" s="43">
+        <v>55</v>
+      </c>
+      <c r="E5" s="43">
+        <v>56</v>
+      </c>
+      <c r="H5" s="25">
+        <v>57</v>
+      </c>
+      <c r="I5" s="35">
+        <v>58</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="37">
-        <v>32</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="37">
-        <v>33</v>
+      <c r="O5" s="25">
+        <v>59</v>
+      </c>
+      <c r="P5" s="46">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>61</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
-      <c r="T5" s="28">
-        <v>34</v>
-      </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="37">
-        <v>35</v>
-      </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="37">
-        <v>36</v>
-      </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="28">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="37">
-        <v>38</v>
-      </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="27">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="42">
-        <v>40</v>
-      </c>
-      <c r="G6" s="41">
-        <v>41</v>
-      </c>
-      <c r="H6" s="20">
-        <v>42</v>
-      </c>
-      <c r="I6" s="41">
-        <v>43</v>
-      </c>
-      <c r="J6" s="20">
-        <v>44</v>
-      </c>
-      <c r="K6" s="41">
-        <v>45</v>
-      </c>
-      <c r="L6" s="41">
-        <v>46</v>
-      </c>
-      <c r="M6" s="27">
-        <v>47</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="34">
-        <v>48</v>
-      </c>
-      <c r="T6" s="27">
-        <v>49</v>
-      </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="28">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="39">
-        <v>51</v>
-      </c>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="39">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="27">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="43">
-        <v>54</v>
-      </c>
-      <c r="H7" s="43">
-        <v>55</v>
-      </c>
-      <c r="J7" s="43">
-        <v>56</v>
-      </c>
-      <c r="M7" s="25">
-        <v>57</v>
-      </c>
-      <c r="N7" s="35">
-        <v>58</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="25">
-        <v>59</v>
-      </c>
-      <c r="U7" s="46">
-        <v>60</v>
-      </c>
-      <c r="V7" s="35">
-        <v>61</v>
-      </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="34">
+      <c r="T5" s="34">
         <v>62</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="U5" s="46">
         <v>63</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="V5" s="22">
         <v>64</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="W5" s="31">
         <v>65</v>
       </c>
-      <c r="AC7" s="32">
+      <c r="X5" s="32">
         <v>66</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="Y5" s="31">
         <v>67</v>
       </c>
-      <c r="AE7" s="32">
+      <c r="Z5" s="32">
         <v>68</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="AA5" s="31">
         <v>69</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AB5" s="33">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="43">
+    <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
         <v>71</v>
       </c>
-      <c r="H8" s="43">
+      <c r="C6" s="43">
         <v>72</v>
       </c>
-      <c r="J8" s="43">
+      <c r="E6" s="43">
         <v>73</v>
       </c>
-      <c r="M8" s="28">
+      <c r="H6" s="28">
         <v>74</v>
       </c>
-      <c r="P8" s="39">
+      <c r="K6" s="39">
         <v>75</v>
       </c>
-      <c r="T8" s="28">
+      <c r="O6" s="28">
         <v>76</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="V6" s="28">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="45">
+    <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <v>78</v>
       </c>
-      <c r="H9" s="45">
+      <c r="C7" s="45">
         <v>79</v>
       </c>
-      <c r="J9" s="45">
+      <c r="E7" s="45">
         <v>80</v>
       </c>
-      <c r="M9" s="28">
+      <c r="H7" s="28">
         <v>81</v>
       </c>
-      <c r="O9" s="36">
+      <c r="J7" s="36">
         <v>82</v>
       </c>
-      <c r="P9" s="40">
+      <c r="K7" s="40">
         <v>83</v>
       </c>
-      <c r="R9" s="9">
+      <c r="M7" s="9">
         <v>84</v>
       </c>
-      <c r="S9" s="48">
+      <c r="N7" s="48">
         <v>85</v>
       </c>
-      <c r="T9" s="3">
+      <c r="O7" s="3">
         <v>86</v>
       </c>
-      <c r="U9" s="48">
+      <c r="P7" s="48">
         <v>87</v>
       </c>
-      <c r="V9" s="10">
+      <c r="Q7" s="10">
         <v>88</v>
       </c>
-      <c r="X9" s="36">
+      <c r="S7" s="36">
         <v>89</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="T7" s="35">
         <v>90</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="V7" s="28">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="28">
+    <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="28">
         <v>92</v>
       </c>
-      <c r="O10" s="38">
+      <c r="J8" s="38">
         <v>93</v>
       </c>
-      <c r="R10" s="47">
+      <c r="M8" s="47">
         <v>94</v>
       </c>
-      <c r="S10" s="2">
+      <c r="N8" s="2">
         <v>95</v>
       </c>
-      <c r="T10" s="3">
+      <c r="O8" s="3">
         <v>96</v>
       </c>
-      <c r="U10" s="4">
+      <c r="P8" s="4">
         <v>97</v>
       </c>
-      <c r="V10" s="47">
+      <c r="Q8" s="47">
         <v>98</v>
       </c>
-      <c r="X10" s="38">
+      <c r="S8" s="38">
         <v>99</v>
       </c>
-      <c r="AA10" s="28">
+      <c r="V8" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M11" s="25">
+    <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="25">
         <v>101</v>
       </c>
-      <c r="N11" s="31">
+      <c r="I9" s="31">
         <v>102</v>
       </c>
-      <c r="O11" s="32">
+      <c r="J9" s="32">
         <v>103</v>
       </c>
-      <c r="P11" s="31">
+      <c r="K9" s="31">
         <v>104</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="L9" s="31">
         <v>105</v>
       </c>
-      <c r="R11" s="49">
+      <c r="M9" s="49">
         <v>106</v>
       </c>
-      <c r="S11" s="3">
+      <c r="N9" s="3">
         <v>107</v>
       </c>
-      <c r="T11" s="5">
+      <c r="O9" s="5">
         <v>108</v>
       </c>
-      <c r="U11" s="3">
+      <c r="P9" s="3">
         <v>109</v>
       </c>
-      <c r="V11" s="3">
+      <c r="Q9" s="3">
         <v>110</v>
       </c>
-      <c r="W11" s="31">
+      <c r="R9" s="31">
         <v>111</v>
       </c>
-      <c r="X11" s="32">
+      <c r="S9" s="32">
         <v>112</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="T9" s="31">
         <v>113</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="U9" s="31">
         <v>114</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="V9" s="27">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="24">
+    <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="24">
         <v>116</v>
       </c>
-      <c r="M12" s="33">
+      <c r="H10" s="33">
         <v>117</v>
       </c>
-      <c r="S12" s="6">
+      <c r="N10" s="6">
         <v>118</v>
       </c>
-      <c r="T12" s="3">
+      <c r="O10" s="3">
         <v>119</v>
       </c>
-      <c r="U12" s="7">
+      <c r="P10" s="7">
         <v>120</v>
       </c>
-      <c r="V12" s="47">
+      <c r="Q10" s="47">
         <v>121</v>
       </c>
-      <c r="AA12" s="28">
+      <c r="V10" s="28">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="28">
+    <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="28">
         <v>123</v>
       </c>
-      <c r="N13" s="57">
+      <c r="I11" s="57">
         <v>124</v>
       </c>
-      <c r="O13" s="58">
+      <c r="J11" s="58">
         <v>125</v>
       </c>
-      <c r="P13" s="58">
+      <c r="K11" s="58">
         <v>126</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="L11" s="58">
         <v>127</v>
       </c>
-      <c r="R13" s="59">
+      <c r="M11" s="59">
         <v>128</v>
       </c>
-      <c r="T13" s="50">
+      <c r="O11" s="50">
         <v>129</v>
       </c>
-      <c r="U13" s="48">
+      <c r="P11" s="48">
         <v>130</v>
       </c>
-      <c r="V13" s="8">
+      <c r="Q11" s="8">
         <v>131</v>
       </c>
-      <c r="AA13" s="28">
+      <c r="V11" s="28">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="28">
+    <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="28">
         <v>133</v>
       </c>
-      <c r="N14" s="51">
+      <c r="I12" s="51">
         <v>134</v>
       </c>
-      <c r="O14" s="52">
+      <c r="J12" s="52">
         <v>135</v>
       </c>
-      <c r="P14" s="52">
+      <c r="K12" s="52">
         <v>136</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="L12" s="52">
         <v>137</v>
       </c>
-      <c r="R14" s="53">
+      <c r="M12" s="53">
         <v>138</v>
       </c>
-      <c r="T14" s="28">
+      <c r="O12" s="28">
         <v>139</v>
       </c>
-      <c r="X14" s="17">
+      <c r="S12" s="17">
         <v>140</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="T12" s="13">
         <v>141</v>
       </c>
-      <c r="AA14" s="28">
+      <c r="V12" s="28">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="28">
+    <row r="13" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="28">
         <v>143</v>
       </c>
-      <c r="N15" s="51">
+      <c r="I13" s="51">
         <v>144</v>
       </c>
-      <c r="O15" s="52">
+      <c r="J13" s="52">
         <v>145</v>
       </c>
-      <c r="P15" s="52">
+      <c r="K13" s="52">
         <v>146</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="L13" s="52">
         <v>147</v>
       </c>
-      <c r="R15" s="53">
+      <c r="M13" s="53">
         <v>148</v>
       </c>
-      <c r="T15" s="28">
+      <c r="O13" s="28">
         <v>149</v>
       </c>
-      <c r="W15" s="17">
+      <c r="R13" s="17">
         <v>150</v>
       </c>
-      <c r="X15" s="12">
+      <c r="S13" s="12">
         <v>151</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="T13" s="14">
         <v>152</v>
       </c>
-      <c r="AA15" s="28">
+      <c r="V13" s="28">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="6:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="28">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="28">
         <v>154</v>
       </c>
-      <c r="N16" s="51">
+      <c r="I14" s="51">
         <v>155</v>
       </c>
-      <c r="O16" s="52">
+      <c r="J14" s="52">
         <v>156</v>
       </c>
-      <c r="P16" s="52">
+      <c r="K14" s="52">
         <v>157</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="L14" s="52">
         <v>158</v>
       </c>
-      <c r="R16" s="53">
+      <c r="M14" s="53">
         <v>159</v>
       </c>
-      <c r="T16" s="25">
+      <c r="O14" s="25">
         <v>160</v>
       </c>
-      <c r="U16" s="19">
+      <c r="P14" s="19">
         <v>161</v>
       </c>
-      <c r="V16" s="19">
+      <c r="Q14" s="19">
         <v>162</v>
       </c>
-      <c r="W16" s="12">
+      <c r="R14" s="12">
         <v>163</v>
       </c>
-      <c r="X16" s="12">
+      <c r="S14" s="12">
         <v>164</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="T14" s="14">
         <v>165</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="V14" s="28">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="28">
+    <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="28">
         <v>167</v>
       </c>
-      <c r="N17" s="54">
+      <c r="I15" s="54">
         <v>168</v>
       </c>
-      <c r="O17" s="55">
+      <c r="J15" s="55">
         <v>169</v>
       </c>
-      <c r="P17" s="52">
+      <c r="K15" s="52">
         <v>170</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="L15" s="55">
         <v>171</v>
       </c>
-      <c r="R17" s="56">
+      <c r="M15" s="56">
         <v>172</v>
       </c>
-      <c r="T17" s="28">
+      <c r="O15" s="28">
         <v>173</v>
       </c>
-      <c r="W17" s="18">
+      <c r="R15" s="18">
         <v>174</v>
       </c>
-      <c r="X17" s="15">
+      <c r="S15" s="15">
         <v>175</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="T15" s="16">
         <v>176</v>
       </c>
-      <c r="AA17" s="28">
+      <c r="V15" s="28">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="28">
+    <row r="16" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="28">
         <v>178</v>
       </c>
-      <c r="P18" s="60">
+      <c r="K16" s="60">
         <v>179</v>
       </c>
-      <c r="T18" s="28">
+      <c r="O16" s="28">
         <v>180</v>
       </c>
-      <c r="AA18" s="28">
+      <c r="V16" s="28">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="29">
+    <row r="17" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="29">
         <v>182</v>
       </c>
-      <c r="M19" s="31">
+      <c r="H17" s="31">
         <v>183</v>
       </c>
-      <c r="N19" s="31">
+      <c r="I17" s="31">
         <v>184</v>
       </c>
-      <c r="O19" s="31">
+      <c r="J17" s="31">
         <v>185</v>
       </c>
-      <c r="P19" s="32">
+      <c r="K17" s="32">
         <v>186</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="L17" s="31">
         <v>187</v>
       </c>
-      <c r="R19" s="31">
+      <c r="M17" s="31">
         <v>188</v>
       </c>
-      <c r="S19" s="31">
+      <c r="N17" s="31">
         <v>189</v>
       </c>
-      <c r="T19" s="11">
+      <c r="O17" s="11">
         <v>190</v>
       </c>
-      <c r="U19" s="31">
+      <c r="P17" s="31">
         <v>191</v>
       </c>
-      <c r="V19" s="31">
+      <c r="Q17" s="31">
         <v>192</v>
       </c>
-      <c r="W19" s="31">
+      <c r="R17" s="31">
         <v>193</v>
       </c>
-      <c r="X19" s="31">
+      <c r="S17" s="31">
         <v>194</v>
       </c>
-      <c r="Y19" s="31">
+      <c r="T17" s="31">
         <v>195</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="U17" s="21">
         <v>196</v>
       </c>
-      <c r="AA19" s="33">
+      <c r="V17" s="33">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T20" s="28">
+    <row r="18" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="28">
         <v>198</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="U18" s="28">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T21" s="28">
+    <row r="19" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="28">
         <v>200</v>
       </c>
-      <c r="Z21" s="28">
+      <c r="U19" s="28">
         <v>201</v>
       </c>
-      <c r="AI21" s="61">
+      <c r="AD19" s="61">
         <v>202</v>
       </c>
-      <c r="AJ21" s="62">
+      <c r="AE19" s="62">
         <v>203</v>
       </c>
-      <c r="AK21" s="63">
+      <c r="AF19" s="63">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T22" s="30">
+    <row r="20" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="30">
         <v>205</v>
       </c>
-      <c r="Z22" s="28">
+      <c r="U20" s="28">
         <v>206</v>
       </c>
-      <c r="AI22" s="64">
+      <c r="AD20" s="64">
         <v>207</v>
       </c>
-      <c r="AJ22" s="65">
+      <c r="AE20" s="65">
         <v>208</v>
       </c>
-      <c r="AK22" s="66">
+      <c r="AF20" s="66">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z23" s="28">
+    <row r="21" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="28">
         <v>210</v>
       </c>
-      <c r="AI23" s="64">
+      <c r="AD21" s="64">
         <v>211</v>
       </c>
-      <c r="AJ23" s="65">
+      <c r="AE21" s="65">
         <v>212</v>
       </c>
-      <c r="AK23" s="66">
+      <c r="AF21" s="66">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="12:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z24" s="29">
+    <row r="22" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="29">
         <v>214</v>
       </c>
-      <c r="AA24" s="31">
+      <c r="V22" s="31">
         <v>215</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="W22" s="31">
         <v>216</v>
       </c>
-      <c r="AC24" s="31">
+      <c r="X22" s="31">
         <v>217</v>
       </c>
-      <c r="AD24" s="31">
+      <c r="Y22" s="31">
         <v>218</v>
       </c>
-      <c r="AE24" s="31">
+      <c r="Z22" s="31">
         <v>219</v>
       </c>
-      <c r="AF24" s="31">
+      <c r="AA22" s="31">
         <v>220</v>
       </c>
-      <c r="AG24" s="31">
+      <c r="AB22" s="31">
         <v>221</v>
       </c>
-      <c r="AH24" s="31">
+      <c r="AC22" s="31">
         <v>222</v>
       </c>
-      <c r="AI24" s="67">
+      <c r="AD22" s="67">
         <v>223</v>
       </c>
-      <c r="AJ24" s="67">
+      <c r="AE22" s="67">
         <v>224</v>
       </c>
-      <c r="AK24" s="68">
+      <c r="AF22" s="68">
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reference/map.xlsx
+++ b/reference/map.xlsx
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,19 @@
     <font>
       <sz val="6"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -268,210 +281,219 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:O16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,754 +788,754 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="44">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="9">
         <v>7</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="10">
         <v>8</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="11">
         <v>9</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="10">
         <v>10</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="11">
         <v>11</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="10">
         <v>12</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="10">
         <v>13</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="11">
         <v>14</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="10">
         <v>15</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="10">
         <v>16</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="11">
         <v>17</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="10">
         <v>18</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="11">
         <v>19</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="10">
         <v>20</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="11">
         <v>21</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="10">
         <v>22</v>
       </c>
-      <c r="X2" s="31">
+      <c r="X2" s="10">
         <v>23</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="Y2" s="11">
         <v>24</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="10">
         <v>25</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="AA2" s="10">
         <v>26</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AB2" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="4">
         <v>28</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="4">
         <v>29</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="32">
         <v>31</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="37">
+      <c r="I3" s="2"/>
+      <c r="J3" s="46">
         <v>32</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="37">
+      <c r="K3" s="2"/>
+      <c r="L3" s="46">
         <v>33</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="28">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="48">
         <v>34</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="37">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="46">
         <v>35</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="37">
+      <c r="S3" s="2"/>
+      <c r="T3" s="46">
         <v>36</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="28">
+      <c r="U3" s="2"/>
+      <c r="V3" s="32">
         <v>37</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="37">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="46">
         <v>38</v>
       </c>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="27">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="32">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="5">
         <v>40</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="7">
         <v>41</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="8">
         <v>42</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="7">
         <v>43</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="8">
         <v>44</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="7">
         <v>45</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="7">
         <v>46</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="13">
         <v>47</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="34">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="47">
         <v>48</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="49">
         <v>49</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="28">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="32">
         <v>50</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="39">
+      <c r="W4" s="2"/>
+      <c r="X4" s="57">
         <v>51</v>
       </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="39">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="57">
         <v>52</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="27">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="32">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="4">
         <v>54</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="4">
         <v>55</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="4">
         <v>56</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="33">
         <v>57</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="45">
         <v>58</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="50">
         <v>59</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="51">
         <v>60</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="45">
         <v>61</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="34">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="47">
         <v>62</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="51">
         <v>63</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="44">
         <v>64</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="10">
         <v>65</v>
       </c>
-      <c r="X5" s="32">
+      <c r="X5" s="15">
         <v>66</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="10">
         <v>67</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="15">
         <v>68</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="10">
         <v>69</v>
       </c>
-      <c r="AB5" s="33">
+      <c r="AB5" s="14">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="4">
         <v>71</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="4">
         <v>72</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="4">
         <v>73</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="32">
         <v>74</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="57">
         <v>75</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="48">
         <v>76</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="32">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="6">
         <v>78</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="6">
         <v>79</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="6">
         <v>80</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="32">
         <v>81</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="55">
         <v>82</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="58">
         <v>83</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="52">
         <v>84</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="54">
         <v>85</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="37">
         <v>86</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="54">
         <v>87</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="59">
         <v>88</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="55">
         <v>89</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="45">
         <v>90</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="32">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="28">
+      <c r="H8" s="32">
         <v>92</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="56">
         <v>93</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="53">
         <v>94</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="39">
         <v>95</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="37">
         <v>96</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="42">
         <v>97</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="53">
         <v>98</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="56">
         <v>99</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="25">
+      <c r="H9" s="33">
         <v>101</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="10">
         <v>102</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="15">
         <v>103</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="10">
         <v>104</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="10">
         <v>105</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="36">
         <v>106</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="37">
         <v>107</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="43">
         <v>108</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="37">
         <v>109</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="37">
         <v>110</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="10">
         <v>111</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="15">
         <v>112</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="10">
         <v>113</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="10">
         <v>114</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="13">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="24">
+      <c r="G10" s="9">
         <v>116</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="14">
         <v>117</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="40">
         <v>118</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="37">
         <v>119</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="41">
         <v>120</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="53">
         <v>121</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="32">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="28">
+      <c r="G11" s="32">
         <v>123</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="62">
         <v>124</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="63">
         <v>125</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="63">
         <v>126</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="63">
         <v>127</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="64">
         <v>128</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="38">
         <v>129</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="54">
         <v>130</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="60">
         <v>131</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="32">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="28">
+      <c r="G12" s="32">
         <v>133</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="65">
         <v>134</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="66">
         <v>135</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="66">
         <v>136</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="66">
         <v>137</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="67">
         <v>138</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="32">
         <v>139</v>
       </c>
       <c r="S12" s="17">
         <v>140</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="20">
         <v>141</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="32">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="28">
+      <c r="G13" s="32">
         <v>143</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="65">
         <v>144</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="66">
         <v>145</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="66">
         <v>146</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="66">
         <v>147</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="67">
         <v>148</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="32">
         <v>149</v>
       </c>
       <c r="R13" s="17">
         <v>150</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="18">
         <v>151</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="21">
         <v>152</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="32">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="28">
+      <c r="G14" s="32">
         <v>154</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="65">
         <v>155</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="66">
         <v>156</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="66">
         <v>157</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="66">
         <v>158</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="67">
         <v>159</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="33">
         <v>160</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="16">
         <v>161</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="16">
         <v>162</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="18">
         <v>163</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="18">
         <v>164</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="21">
         <v>165</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="32">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="28">
+      <c r="G15" s="32">
         <v>167</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="68">
         <v>168</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="69">
         <v>169</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="66">
         <v>170</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="69">
         <v>171</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="70">
         <v>172</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="32">
         <v>173</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="19">
         <v>174</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="22">
         <v>175</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="23">
         <v>176</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="32">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="28">
+      <c r="G16" s="32">
         <v>178</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="71">
         <v>179</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="32">
         <v>180</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="32">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="29">
+      <c r="G17" s="34">
         <v>182</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="10">
         <v>183</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="10">
         <v>184</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="10">
         <v>185</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="15">
         <v>186</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="10">
         <v>187</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="10">
         <v>188</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="10">
         <v>189</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="35">
         <v>190</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="10">
         <v>191</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="10">
         <v>192</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="10">
         <v>193</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="10">
         <v>194</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="10">
         <v>195</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="11">
         <v>196</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="14">
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O18" s="28">
+      <c r="O18" s="48">
         <v>198</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="32">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O19" s="28">
+      <c r="O19" s="48">
         <v>200</v>
       </c>
-      <c r="U19" s="28">
+      <c r="U19" s="32">
         <v>201</v>
       </c>
-      <c r="AD19" s="61">
+      <c r="AD19" s="24">
         <v>202</v>
       </c>
-      <c r="AE19" s="62">
+      <c r="AE19" s="25">
         <v>203</v>
       </c>
-      <c r="AF19" s="63">
+      <c r="AF19" s="26">
         <v>204</v>
       </c>
     </row>
     <row r="20" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O20" s="30">
+      <c r="O20" s="61">
         <v>205</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="32">
         <v>206</v>
       </c>
-      <c r="AD20" s="64">
+      <c r="AD20" s="27">
         <v>207</v>
       </c>
-      <c r="AE20" s="65">
+      <c r="AE20" s="28">
         <v>208</v>
       </c>
-      <c r="AF20" s="66">
+      <c r="AF20" s="29">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U21" s="28">
+      <c r="U21" s="32">
         <v>210</v>
       </c>
-      <c r="AD21" s="64">
+      <c r="AD21" s="27">
         <v>211</v>
       </c>
-      <c r="AE21" s="65">
+      <c r="AE21" s="28">
         <v>212</v>
       </c>
-      <c r="AF21" s="66">
+      <c r="AF21" s="29">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="7:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U22" s="29">
+      <c r="U22" s="34">
         <v>214</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="10">
         <v>215</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="10">
         <v>216</v>
       </c>
-      <c r="X22" s="31">
+      <c r="X22" s="10">
         <v>217</v>
       </c>
-      <c r="Y22" s="31">
+      <c r="Y22" s="10">
         <v>218</v>
       </c>
-      <c r="Z22" s="31">
+      <c r="Z22" s="10">
         <v>219</v>
       </c>
-      <c r="AA22" s="31">
+      <c r="AA22" s="10">
         <v>220</v>
       </c>
-      <c r="AB22" s="31">
+      <c r="AB22" s="10">
         <v>221</v>
       </c>
-      <c r="AC22" s="31">
+      <c r="AC22" s="10">
         <v>222</v>
       </c>
-      <c r="AD22" s="67">
+      <c r="AD22" s="30">
         <v>223</v>
       </c>
-      <c r="AE22" s="67">
+      <c r="AE22" s="30">
         <v>224</v>
       </c>
-      <c r="AF22" s="68">
+      <c r="AF22" s="31">
         <v>225</v>
       </c>
     </row>
